--- a/assets/deadlines.xlsx
+++ b/assets/deadlines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm92629\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm92629\My Drive\Teaching\PA397G\amgps\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784537F5-F53C-41E5-87A1-57C7FBE35206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2C9A4-5315-496E-97CC-E8F98BF5551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18285" yWindow="3090" windowWidth="28800" windowHeight="15555" xr2:uid="{EF59AC51-BD8E-4034-9322-3DF833A64238}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{EF59AC51-BD8E-4034-9322-3DF833A64238}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Plagiarism test</t>
   </si>
@@ -95,14 +95,6 @@
 (11/17)</t>
   </si>
   <si>
-    <t>Week 14
-(11/24)</t>
-  </si>
-  <si>
-    <t>Week 15
-(12/1)</t>
-  </si>
-  <si>
     <t>Exam
 (12/8)</t>
   </si>
@@ -138,6 +130,19 @@
   </si>
   <si>
     <t>Report final</t>
+  </si>
+  <si>
+    <t>Week 14
+(12/1)</t>
+  </si>
+  <si>
+    <t>Take home test</t>
+  </si>
+  <si>
+    <t>Sample test</t>
+  </si>
+  <si>
+    <t>Final due / test</t>
   </si>
 </sst>
 </file>
@@ -173,7 +178,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +197,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -257,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -291,6 +308,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,19 +641,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="2" max="16" width="8.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -663,16 +695,13 @@
         <v>14</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,9 +720,8 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -711,12 +739,11 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -733,11 +760,10 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -754,11 +780,10 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -775,11 +800,10 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -795,54 +819,51 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -858,12 +879,11 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -880,11 +900,10 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -901,11 +920,10 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -922,11 +940,10 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -941,15 +958,29 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
